--- a/LocatorUseCase/Data/Config.xlsx
+++ b/LocatorUseCase/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Uipath\LocatorUseCase\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UiPath_ReusableCodes\LocatorUseCase\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65EBA7F-1BE1-4FAD-A7BF-9E8AFA2FE40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -170,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -546,19 +545,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -606,7 +605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -616,7 +615,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1635,19 +1634,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1684,7 +1683,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1809,7 +1808,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2798,19 +2797,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
